--- a/src/main/java/Objects/ProjektMappe.xlsx
+++ b/src/main/java/Objects/ProjektMappe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Michi/Documents/S C H O O L &amp; W O R K/TH_Rosenheim/Studium WIF/2. Semester/OOP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Wirtschaftsinfo\2.Semester\OOP\Logistik\src\main\java\Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412FB89-A4C1-DE45-B9CC-535091F4925B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B5175-8A8C-482F-9CBC-92C867B147BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="6240" windowWidth="28240" windowHeight="17560" xr2:uid="{511C1DFD-2651-564C-9F2B-EAF9B7F14634}"/>
+    <workbookView xWindow="1485" yWindow="3120" windowWidth="23235" windowHeight="11385" xr2:uid="{511C1DFD-2651-564C-9F2B-EAF9B7F14634}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Fußball WM-Edition</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>Fußball Standard-Version</t>
@@ -415,20 +412,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="55.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="55.875" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,15 +445,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
         <v>13.13</v>
@@ -468,15 +465,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3">
         <v>7.89</v>
@@ -488,15 +485,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4">
         <v>23.67</v>
@@ -508,15 +505,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
       </c>
       <c r="D5">
         <v>32.869999999999997</v>
@@ -528,15 +525,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
         <v>38.56</v>
